--- a/Finance/Financial_Model.xlsx
+++ b/Finance/Financial_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -2408,38 +2408,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2448,9 +2424,33 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6639,12 +6639,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="447" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="442"/>
       <c r="C1" s="64"/>
-      <c r="D1" s="458"/>
+      <c r="D1" s="448"/>
       <c r="E1" s="442"/>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
@@ -6687,10 +6687,10 @@
       <c r="C2" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="459" t="s">
+      <c r="D2" s="449" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="446"/>
+      <c r="E2" s="445"/>
       <c r="F2" s="69" t="s">
         <v>110</v>
       </c>
@@ -6732,7 +6732,7 @@
       <c r="A3" s="71"/>
       <c r="B3" s="72"/>
       <c r="C3" s="73"/>
-      <c r="D3" s="460"/>
+      <c r="D3" s="450"/>
       <c r="E3" s="442"/>
       <c r="F3" s="71"/>
       <c r="G3" s="73"/>
@@ -6775,7 +6775,7 @@
         <v>111</v>
       </c>
       <c r="C4" s="78"/>
-      <c r="D4" s="454"/>
+      <c r="D4" s="451"/>
       <c r="E4" s="442"/>
       <c r="F4" s="76"/>
       <c r="G4" s="78"/>
@@ -6818,8 +6818,8 @@
         <v>112</v>
       </c>
       <c r="C5" s="83"/>
-      <c r="D5" s="445"/>
-      <c r="E5" s="446"/>
+      <c r="D5" s="444"/>
+      <c r="E5" s="445"/>
       <c r="F5" s="84"/>
       <c r="G5" s="85"/>
       <c r="H5" s="85"/>
@@ -6860,10 +6860,10 @@
       <c r="B6" s="452" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="448" t="s">
+      <c r="C6" s="453" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="444" t="s">
+      <c r="D6" s="454" t="s">
         <v>115</v>
       </c>
       <c r="E6" s="442"/>
@@ -6908,7 +6908,7 @@
       <c r="A7" s="81"/>
       <c r="B7" s="442"/>
       <c r="C7" s="442"/>
-      <c r="D7" s="444" t="s">
+      <c r="D7" s="454" t="s">
         <v>116</v>
       </c>
       <c r="E7" s="442"/>
@@ -6957,7 +6957,7 @@
       <c r="C8" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="444"/>
+      <c r="D8" s="454"/>
       <c r="E8" s="442"/>
       <c r="F8" s="89">
         <v>0</v>
@@ -7000,7 +7000,7 @@
       <c r="A9" s="81"/>
       <c r="B9" s="90"/>
       <c r="C9" s="87"/>
-      <c r="D9" s="444"/>
+      <c r="D9" s="454"/>
       <c r="E9" s="442"/>
       <c r="F9" s="89"/>
       <c r="G9" s="81"/>
@@ -7043,8 +7043,8 @@
         <v>119</v>
       </c>
       <c r="C10" s="83"/>
-      <c r="D10" s="445"/>
-      <c r="E10" s="446"/>
+      <c r="D10" s="444"/>
+      <c r="E10" s="445"/>
       <c r="F10" s="84"/>
       <c r="G10" s="85"/>
       <c r="H10" s="85"/>
@@ -7085,10 +7085,10 @@
       <c r="B11" s="452" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="448" t="s">
+      <c r="C11" s="453" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="444" t="s">
+      <c r="D11" s="454" t="s">
         <v>115</v>
       </c>
       <c r="E11" s="442"/>
@@ -7133,7 +7133,7 @@
       <c r="A12" s="81"/>
       <c r="B12" s="442"/>
       <c r="C12" s="442"/>
-      <c r="D12" s="444" t="s">
+      <c r="D12" s="454" t="s">
         <v>116</v>
       </c>
       <c r="E12" s="442"/>
@@ -7182,7 +7182,7 @@
       <c r="C13" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="456"/>
+      <c r="D13" s="455"/>
       <c r="E13" s="442"/>
       <c r="F13" s="91">
         <v>120</v>
@@ -7247,8 +7247,8 @@
         <v>120</v>
       </c>
       <c r="C15" s="96"/>
-      <c r="D15" s="449"/>
-      <c r="E15" s="446"/>
+      <c r="D15" s="446"/>
+      <c r="E15" s="445"/>
       <c r="F15" s="96"/>
       <c r="G15" s="96"/>
       <c r="H15" s="96"/>
@@ -7286,13 +7286,13 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="94"/>
-      <c r="B16" s="443" t="s">
+      <c r="B16" s="456" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="451" t="s">
+      <c r="C16" s="457" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="451" t="s">
+      <c r="D16" s="457" t="s">
         <v>115</v>
       </c>
       <c r="E16" s="442"/>
@@ -7337,7 +7337,7 @@
       <c r="A17" s="94"/>
       <c r="B17" s="442"/>
       <c r="C17" s="442"/>
-      <c r="D17" s="451" t="s">
+      <c r="D17" s="457" t="s">
         <v>116</v>
       </c>
       <c r="E17" s="442"/>
@@ -7386,7 +7386,7 @@
       <c r="C18" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="453"/>
+      <c r="D18" s="458"/>
       <c r="E18" s="442"/>
       <c r="F18" s="100">
         <v>876</v>
@@ -7451,8 +7451,8 @@
         <v>121</v>
       </c>
       <c r="C20" s="96"/>
-      <c r="D20" s="449"/>
-      <c r="E20" s="446"/>
+      <c r="D20" s="446"/>
+      <c r="E20" s="445"/>
       <c r="F20" s="96"/>
       <c r="G20" s="81"/>
       <c r="H20" s="81"/>
@@ -7469,13 +7469,13 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="81"/>
-      <c r="B21" s="443" t="s">
+      <c r="B21" s="456" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="451" t="s">
+      <c r="C21" s="457" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="451" t="s">
+      <c r="D21" s="457" t="s">
         <v>122</v>
       </c>
       <c r="E21" s="442"/>
@@ -7499,7 +7499,7 @@
       <c r="A22" s="81"/>
       <c r="B22" s="442"/>
       <c r="C22" s="442"/>
-      <c r="D22" s="451" t="s">
+      <c r="D22" s="457" t="s">
         <v>123</v>
       </c>
       <c r="E22" s="442"/>
@@ -7527,7 +7527,7 @@
       <c r="C23" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="453"/>
+      <c r="D23" s="458"/>
       <c r="E23" s="442"/>
       <c r="F23" s="100">
         <v>876</v>
@@ -7652,7 +7652,7 @@
         <v>124</v>
       </c>
       <c r="C28" s="78"/>
-      <c r="D28" s="454"/>
+      <c r="D28" s="451"/>
       <c r="E28" s="442"/>
       <c r="F28" s="76"/>
       <c r="G28" s="78"/>
@@ -7695,8 +7695,8 @@
         <v>125</v>
       </c>
       <c r="C29" s="102"/>
-      <c r="D29" s="455"/>
-      <c r="E29" s="446"/>
+      <c r="D29" s="459"/>
+      <c r="E29" s="445"/>
       <c r="F29" s="103" t="s">
         <v>126</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>135</v>
       </c>
       <c r="C46" s="109"/>
-      <c r="D46" s="461"/>
+      <c r="D46" s="443"/>
       <c r="E46" s="442"/>
       <c r="F46" s="107"/>
       <c r="G46" s="107"/>
@@ -8205,8 +8205,8 @@
         <v>136</v>
       </c>
       <c r="C48" s="83"/>
-      <c r="D48" s="445"/>
-      <c r="E48" s="446"/>
+      <c r="D48" s="444"/>
+      <c r="E48" s="445"/>
       <c r="F48" s="84"/>
       <c r="G48" s="81"/>
       <c r="H48" s="81"/>
@@ -8262,8 +8262,8 @@
         <v>139</v>
       </c>
       <c r="C51" s="114"/>
-      <c r="D51" s="449"/>
-      <c r="E51" s="446"/>
+      <c r="D51" s="446"/>
+      <c r="E51" s="445"/>
       <c r="F51" s="115"/>
       <c r="G51" s="94"/>
       <c r="H51" s="94"/>
@@ -8307,7 +8307,7 @@
       <c r="C52" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="443"/>
+      <c r="D52" s="456"/>
       <c r="E52" s="442"/>
       <c r="F52" s="117">
         <v>18</v>
@@ -8350,7 +8350,7 @@
       <c r="A53" s="81"/>
       <c r="B53" s="90"/>
       <c r="C53" s="87"/>
-      <c r="D53" s="444"/>
+      <c r="D53" s="454"/>
       <c r="E53" s="442"/>
       <c r="F53" s="89"/>
       <c r="G53" s="81"/>
@@ -8372,8 +8372,8 @@
         <v>119</v>
       </c>
       <c r="C54" s="83"/>
-      <c r="D54" s="445"/>
-      <c r="E54" s="446"/>
+      <c r="D54" s="444"/>
+      <c r="E54" s="445"/>
       <c r="F54" s="84"/>
       <c r="G54" s="81"/>
       <c r="H54" s="81"/>
@@ -8429,8 +8429,8 @@
         <v>120</v>
       </c>
       <c r="C57" s="96"/>
-      <c r="D57" s="449"/>
-      <c r="E57" s="446"/>
+      <c r="D57" s="446"/>
+      <c r="E57" s="445"/>
       <c r="F57" s="96"/>
       <c r="G57" s="81"/>
       <c r="H57" s="81"/>
@@ -8447,13 +8447,13 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="94"/>
-      <c r="B58" s="447" t="s">
+      <c r="B58" s="460" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="448" t="s">
+      <c r="C58" s="453" t="s">
         <v>138</v>
       </c>
-      <c r="D58" s="450" t="s">
+      <c r="D58" s="461" t="s">
         <v>140</v>
       </c>
       <c r="E58" s="442"/>
@@ -8544,8 +8544,8 @@
         <v>121</v>
       </c>
       <c r="C61" s="96"/>
-      <c r="D61" s="449"/>
-      <c r="E61" s="446"/>
+      <c r="D61" s="446"/>
+      <c r="E61" s="445"/>
       <c r="F61" s="96"/>
       <c r="G61" s="81"/>
       <c r="H61" s="81"/>
@@ -8562,13 +8562,13 @@
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="94"/>
-      <c r="B62" s="447" t="s">
+      <c r="B62" s="460" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="448" t="s">
+      <c r="C62" s="453" t="s">
         <v>138</v>
       </c>
-      <c r="D62" s="451" t="s">
+      <c r="D62" s="457" t="s">
         <v>142</v>
       </c>
       <c r="E62" s="442"/>
@@ -8613,7 +8613,7 @@
       <c r="A63" s="81"/>
       <c r="B63" s="442"/>
       <c r="C63" s="442"/>
-      <c r="D63" s="451" t="s">
+      <c r="D63" s="457" t="s">
         <v>143</v>
       </c>
       <c r="E63" s="442"/>
@@ -14533,195 +14533,391 @@
     </row>
   </sheetData>
   <mergeCells count="598">
-    <mergeCell ref="D294:E294"/>
-    <mergeCell ref="D295:E295"/>
-    <mergeCell ref="D296:E296"/>
-    <mergeCell ref="D297:E297"/>
-    <mergeCell ref="D298:E298"/>
-    <mergeCell ref="D299:E299"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="D302:E302"/>
-    <mergeCell ref="D303:E303"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="D306:E306"/>
-    <mergeCell ref="D307:E307"/>
-    <mergeCell ref="D308:E308"/>
-    <mergeCell ref="D309:E309"/>
-    <mergeCell ref="D310:E310"/>
-    <mergeCell ref="D311:E311"/>
-    <mergeCell ref="D312:E312"/>
-    <mergeCell ref="D313:E313"/>
-    <mergeCell ref="D314:E314"/>
-    <mergeCell ref="D315:E315"/>
-    <mergeCell ref="D316:E316"/>
-    <mergeCell ref="D317:E317"/>
-    <mergeCell ref="D318:E318"/>
-    <mergeCell ref="D319:E319"/>
-    <mergeCell ref="D320:E320"/>
-    <mergeCell ref="D321:E321"/>
-    <mergeCell ref="D322:E322"/>
-    <mergeCell ref="D323:E323"/>
-    <mergeCell ref="D324:E324"/>
-    <mergeCell ref="D325:E325"/>
-    <mergeCell ref="D326:E326"/>
-    <mergeCell ref="D327:E327"/>
-    <mergeCell ref="D328:E328"/>
-    <mergeCell ref="D329:E329"/>
-    <mergeCell ref="D330:E330"/>
-    <mergeCell ref="D331:E331"/>
-    <mergeCell ref="D332:E332"/>
-    <mergeCell ref="D333:E333"/>
-    <mergeCell ref="D334:E334"/>
-    <mergeCell ref="D335:E335"/>
-    <mergeCell ref="D336:E336"/>
-    <mergeCell ref="D337:E337"/>
-    <mergeCell ref="D338:E338"/>
-    <mergeCell ref="D339:E339"/>
-    <mergeCell ref="D340:E340"/>
-    <mergeCell ref="D341:E341"/>
-    <mergeCell ref="D342:E342"/>
-    <mergeCell ref="D343:E343"/>
-    <mergeCell ref="D344:E344"/>
-    <mergeCell ref="D345:E345"/>
-    <mergeCell ref="D346:E346"/>
-    <mergeCell ref="D347:E347"/>
-    <mergeCell ref="D348:E348"/>
-    <mergeCell ref="D349:E349"/>
-    <mergeCell ref="D350:E350"/>
-    <mergeCell ref="D351:E351"/>
-    <mergeCell ref="D352:E352"/>
-    <mergeCell ref="D353:E353"/>
-    <mergeCell ref="D354:E354"/>
-    <mergeCell ref="D355:E355"/>
-    <mergeCell ref="D356:E356"/>
-    <mergeCell ref="D357:E357"/>
-    <mergeCell ref="D358:E358"/>
-    <mergeCell ref="D359:E359"/>
-    <mergeCell ref="D360:E360"/>
-    <mergeCell ref="D361:E361"/>
-    <mergeCell ref="D362:E362"/>
-    <mergeCell ref="D363:E363"/>
-    <mergeCell ref="D364:E364"/>
-    <mergeCell ref="D365:E365"/>
-    <mergeCell ref="D366:E366"/>
-    <mergeCell ref="D367:E367"/>
-    <mergeCell ref="D368:E368"/>
-    <mergeCell ref="D369:E369"/>
-    <mergeCell ref="D370:E370"/>
-    <mergeCell ref="D371:E371"/>
-    <mergeCell ref="D372:E372"/>
-    <mergeCell ref="D373:E373"/>
-    <mergeCell ref="D374:E374"/>
-    <mergeCell ref="D375:E375"/>
-    <mergeCell ref="D376:E376"/>
-    <mergeCell ref="D377:E377"/>
-    <mergeCell ref="D378:E378"/>
-    <mergeCell ref="D379:E379"/>
-    <mergeCell ref="D380:E380"/>
-    <mergeCell ref="D381:E381"/>
-    <mergeCell ref="D382:E382"/>
-    <mergeCell ref="D383:E383"/>
-    <mergeCell ref="D384:E384"/>
-    <mergeCell ref="D385:E385"/>
-    <mergeCell ref="D386:E386"/>
-    <mergeCell ref="D387:E387"/>
-    <mergeCell ref="D388:E388"/>
-    <mergeCell ref="D389:E389"/>
-    <mergeCell ref="D390:E390"/>
-    <mergeCell ref="D391:E391"/>
-    <mergeCell ref="D392:E392"/>
-    <mergeCell ref="D393:E393"/>
-    <mergeCell ref="D394:E394"/>
-    <mergeCell ref="D395:E395"/>
-    <mergeCell ref="D396:E396"/>
-    <mergeCell ref="D397:E397"/>
-    <mergeCell ref="D398:E398"/>
-    <mergeCell ref="D399:E399"/>
-    <mergeCell ref="D400:E400"/>
-    <mergeCell ref="D401:E401"/>
-    <mergeCell ref="D402:E402"/>
-    <mergeCell ref="D403:E403"/>
-    <mergeCell ref="D404:E404"/>
-    <mergeCell ref="D405:E405"/>
-    <mergeCell ref="D406:E406"/>
-    <mergeCell ref="D407:E407"/>
-    <mergeCell ref="D408:E408"/>
-    <mergeCell ref="D409:E409"/>
-    <mergeCell ref="D410:E410"/>
-    <mergeCell ref="D411:E411"/>
-    <mergeCell ref="D412:E412"/>
-    <mergeCell ref="D413:E413"/>
-    <mergeCell ref="D414:E414"/>
-    <mergeCell ref="D415:E415"/>
-    <mergeCell ref="D416:E416"/>
-    <mergeCell ref="D417:E417"/>
-    <mergeCell ref="D418:E418"/>
-    <mergeCell ref="D419:E419"/>
-    <mergeCell ref="D420:E420"/>
-    <mergeCell ref="D421:E421"/>
-    <mergeCell ref="D422:E422"/>
-    <mergeCell ref="D423:E423"/>
-    <mergeCell ref="D424:E424"/>
-    <mergeCell ref="D425:E425"/>
-    <mergeCell ref="D426:E426"/>
-    <mergeCell ref="D427:E427"/>
-    <mergeCell ref="D428:E428"/>
-    <mergeCell ref="D429:E429"/>
-    <mergeCell ref="D430:E430"/>
-    <mergeCell ref="D431:E431"/>
-    <mergeCell ref="D432:E432"/>
-    <mergeCell ref="D433:E433"/>
-    <mergeCell ref="D434:E434"/>
-    <mergeCell ref="D435:E435"/>
-    <mergeCell ref="D436:E436"/>
-    <mergeCell ref="D437:E437"/>
-    <mergeCell ref="D438:E438"/>
-    <mergeCell ref="D439:E439"/>
-    <mergeCell ref="D440:E440"/>
-    <mergeCell ref="D441:E441"/>
-    <mergeCell ref="D442:E442"/>
-    <mergeCell ref="D443:E443"/>
-    <mergeCell ref="D444:E444"/>
-    <mergeCell ref="D445:E445"/>
-    <mergeCell ref="D446:E446"/>
-    <mergeCell ref="D447:E447"/>
-    <mergeCell ref="D448:E448"/>
-    <mergeCell ref="D449:E449"/>
-    <mergeCell ref="D450:E450"/>
-    <mergeCell ref="D451:E451"/>
-    <mergeCell ref="D452:E452"/>
-    <mergeCell ref="D453:E453"/>
-    <mergeCell ref="D454:E454"/>
-    <mergeCell ref="D455:E455"/>
-    <mergeCell ref="D456:E456"/>
-    <mergeCell ref="D457:E457"/>
-    <mergeCell ref="D458:E458"/>
-    <mergeCell ref="D459:E459"/>
-    <mergeCell ref="D460:E460"/>
-    <mergeCell ref="D461:E461"/>
-    <mergeCell ref="D462:E462"/>
-    <mergeCell ref="D463:E463"/>
-    <mergeCell ref="D464:E464"/>
-    <mergeCell ref="D465:E465"/>
-    <mergeCell ref="D466:E466"/>
-    <mergeCell ref="D467:E467"/>
-    <mergeCell ref="D468:E468"/>
-    <mergeCell ref="D469:E469"/>
-    <mergeCell ref="D470:E470"/>
-    <mergeCell ref="D471:E471"/>
-    <mergeCell ref="D472:E472"/>
-    <mergeCell ref="D473:E473"/>
-    <mergeCell ref="D474:E474"/>
-    <mergeCell ref="D475:E475"/>
-    <mergeCell ref="D476:E476"/>
-    <mergeCell ref="D477:E477"/>
-    <mergeCell ref="D478:E478"/>
-    <mergeCell ref="D479:E479"/>
-    <mergeCell ref="D480:E480"/>
-    <mergeCell ref="D481:E481"/>
-    <mergeCell ref="D482:E482"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="D293:E293"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="D284:E284"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="D286:E286"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="D272:E272"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D532:E532"/>
+    <mergeCell ref="D533:E533"/>
+    <mergeCell ref="D534:E534"/>
+    <mergeCell ref="D535:E535"/>
+    <mergeCell ref="D536:E536"/>
+    <mergeCell ref="D537:E537"/>
+    <mergeCell ref="D538:E538"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D523:E523"/>
+    <mergeCell ref="D524:E524"/>
+    <mergeCell ref="D525:E525"/>
+    <mergeCell ref="D526:E526"/>
+    <mergeCell ref="D527:E527"/>
+    <mergeCell ref="D528:E528"/>
+    <mergeCell ref="D529:E529"/>
+    <mergeCell ref="D530:E530"/>
+    <mergeCell ref="D531:E531"/>
+    <mergeCell ref="D514:E514"/>
+    <mergeCell ref="D515:E515"/>
+    <mergeCell ref="D516:E516"/>
+    <mergeCell ref="D517:E517"/>
+    <mergeCell ref="D518:E518"/>
+    <mergeCell ref="D519:E519"/>
+    <mergeCell ref="D520:E520"/>
+    <mergeCell ref="D521:E521"/>
+    <mergeCell ref="D522:E522"/>
+    <mergeCell ref="D505:E505"/>
+    <mergeCell ref="D506:E506"/>
+    <mergeCell ref="D507:E507"/>
+    <mergeCell ref="D508:E508"/>
+    <mergeCell ref="D509:E509"/>
+    <mergeCell ref="D510:E510"/>
+    <mergeCell ref="D511:E511"/>
+    <mergeCell ref="D512:E512"/>
+    <mergeCell ref="D513:E513"/>
+    <mergeCell ref="D584:E584"/>
+    <mergeCell ref="D585:E585"/>
+    <mergeCell ref="D586:E586"/>
+    <mergeCell ref="D587:E587"/>
+    <mergeCell ref="D588:E588"/>
+    <mergeCell ref="D574:E574"/>
+    <mergeCell ref="D575:E575"/>
+    <mergeCell ref="D576:E576"/>
+    <mergeCell ref="D577:E577"/>
+    <mergeCell ref="D578:E578"/>
+    <mergeCell ref="D579:E579"/>
+    <mergeCell ref="D580:E580"/>
+    <mergeCell ref="D568:E568"/>
+    <mergeCell ref="D569:E569"/>
+    <mergeCell ref="D570:E570"/>
+    <mergeCell ref="D571:E571"/>
+    <mergeCell ref="D572:E572"/>
+    <mergeCell ref="D573:E573"/>
+    <mergeCell ref="D581:E581"/>
+    <mergeCell ref="D582:E582"/>
+    <mergeCell ref="D583:E583"/>
+    <mergeCell ref="D559:E559"/>
+    <mergeCell ref="D560:E560"/>
+    <mergeCell ref="D561:E561"/>
+    <mergeCell ref="D562:E562"/>
+    <mergeCell ref="D563:E563"/>
+    <mergeCell ref="D564:E564"/>
+    <mergeCell ref="D565:E565"/>
+    <mergeCell ref="D566:E566"/>
+    <mergeCell ref="D567:E567"/>
+    <mergeCell ref="D550:E550"/>
+    <mergeCell ref="D551:E551"/>
+    <mergeCell ref="D552:E552"/>
+    <mergeCell ref="D553:E553"/>
+    <mergeCell ref="D554:E554"/>
+    <mergeCell ref="D555:E555"/>
+    <mergeCell ref="D556:E556"/>
+    <mergeCell ref="D557:E557"/>
+    <mergeCell ref="D558:E558"/>
+    <mergeCell ref="D541:E541"/>
+    <mergeCell ref="D542:E542"/>
+    <mergeCell ref="D543:E543"/>
+    <mergeCell ref="D544:E544"/>
+    <mergeCell ref="D545:E545"/>
+    <mergeCell ref="D546:E546"/>
+    <mergeCell ref="D547:E547"/>
+    <mergeCell ref="D548:E548"/>
+    <mergeCell ref="D549:E549"/>
     <mergeCell ref="D483:E483"/>
     <mergeCell ref="D484:E484"/>
     <mergeCell ref="D485:E485"/>
@@ -14746,391 +14942,195 @@
     <mergeCell ref="D502:E502"/>
     <mergeCell ref="D503:E503"/>
     <mergeCell ref="D504:E504"/>
-    <mergeCell ref="D541:E541"/>
-    <mergeCell ref="D542:E542"/>
-    <mergeCell ref="D543:E543"/>
-    <mergeCell ref="D544:E544"/>
-    <mergeCell ref="D545:E545"/>
-    <mergeCell ref="D546:E546"/>
-    <mergeCell ref="D547:E547"/>
-    <mergeCell ref="D548:E548"/>
-    <mergeCell ref="D549:E549"/>
-    <mergeCell ref="D550:E550"/>
-    <mergeCell ref="D551:E551"/>
-    <mergeCell ref="D552:E552"/>
-    <mergeCell ref="D553:E553"/>
-    <mergeCell ref="D554:E554"/>
-    <mergeCell ref="D555:E555"/>
-    <mergeCell ref="D556:E556"/>
-    <mergeCell ref="D557:E557"/>
-    <mergeCell ref="D558:E558"/>
-    <mergeCell ref="D559:E559"/>
-    <mergeCell ref="D560:E560"/>
-    <mergeCell ref="D561:E561"/>
-    <mergeCell ref="D562:E562"/>
-    <mergeCell ref="D563:E563"/>
-    <mergeCell ref="D564:E564"/>
-    <mergeCell ref="D565:E565"/>
-    <mergeCell ref="D566:E566"/>
-    <mergeCell ref="D567:E567"/>
-    <mergeCell ref="D568:E568"/>
-    <mergeCell ref="D569:E569"/>
-    <mergeCell ref="D570:E570"/>
-    <mergeCell ref="D571:E571"/>
-    <mergeCell ref="D572:E572"/>
-    <mergeCell ref="D573:E573"/>
-    <mergeCell ref="D581:E581"/>
-    <mergeCell ref="D582:E582"/>
-    <mergeCell ref="D583:E583"/>
-    <mergeCell ref="D584:E584"/>
-    <mergeCell ref="D585:E585"/>
-    <mergeCell ref="D586:E586"/>
-    <mergeCell ref="D587:E587"/>
-    <mergeCell ref="D588:E588"/>
-    <mergeCell ref="D574:E574"/>
-    <mergeCell ref="D575:E575"/>
-    <mergeCell ref="D576:E576"/>
-    <mergeCell ref="D577:E577"/>
-    <mergeCell ref="D578:E578"/>
-    <mergeCell ref="D579:E579"/>
-    <mergeCell ref="D580:E580"/>
-    <mergeCell ref="D505:E505"/>
-    <mergeCell ref="D506:E506"/>
-    <mergeCell ref="D507:E507"/>
-    <mergeCell ref="D508:E508"/>
-    <mergeCell ref="D509:E509"/>
-    <mergeCell ref="D510:E510"/>
-    <mergeCell ref="D511:E511"/>
-    <mergeCell ref="D512:E512"/>
-    <mergeCell ref="D513:E513"/>
-    <mergeCell ref="D514:E514"/>
-    <mergeCell ref="D515:E515"/>
-    <mergeCell ref="D516:E516"/>
-    <mergeCell ref="D517:E517"/>
-    <mergeCell ref="D518:E518"/>
-    <mergeCell ref="D519:E519"/>
-    <mergeCell ref="D520:E520"/>
-    <mergeCell ref="D521:E521"/>
-    <mergeCell ref="D522:E522"/>
-    <mergeCell ref="D523:E523"/>
-    <mergeCell ref="D524:E524"/>
-    <mergeCell ref="D525:E525"/>
-    <mergeCell ref="D526:E526"/>
-    <mergeCell ref="D527:E527"/>
-    <mergeCell ref="D528:E528"/>
-    <mergeCell ref="D529:E529"/>
-    <mergeCell ref="D530:E530"/>
-    <mergeCell ref="D531:E531"/>
-    <mergeCell ref="D532:E532"/>
-    <mergeCell ref="D533:E533"/>
-    <mergeCell ref="D534:E534"/>
-    <mergeCell ref="D535:E535"/>
-    <mergeCell ref="D536:E536"/>
-    <mergeCell ref="D537:E537"/>
-    <mergeCell ref="D538:E538"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="D230:E230"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="D233:E233"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="D271:E271"/>
-    <mergeCell ref="D272:E272"/>
-    <mergeCell ref="D273:E273"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="D280:E280"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="D293:E293"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="D282:E282"/>
-    <mergeCell ref="D283:E283"/>
-    <mergeCell ref="D284:E284"/>
-    <mergeCell ref="D285:E285"/>
-    <mergeCell ref="D286:E286"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="D474:E474"/>
+    <mergeCell ref="D475:E475"/>
+    <mergeCell ref="D476:E476"/>
+    <mergeCell ref="D477:E477"/>
+    <mergeCell ref="D478:E478"/>
+    <mergeCell ref="D479:E479"/>
+    <mergeCell ref="D480:E480"/>
+    <mergeCell ref="D481:E481"/>
+    <mergeCell ref="D482:E482"/>
+    <mergeCell ref="D465:E465"/>
+    <mergeCell ref="D466:E466"/>
+    <mergeCell ref="D467:E467"/>
+    <mergeCell ref="D468:E468"/>
+    <mergeCell ref="D469:E469"/>
+    <mergeCell ref="D470:E470"/>
+    <mergeCell ref="D471:E471"/>
+    <mergeCell ref="D472:E472"/>
+    <mergeCell ref="D473:E473"/>
+    <mergeCell ref="D456:E456"/>
+    <mergeCell ref="D457:E457"/>
+    <mergeCell ref="D458:E458"/>
+    <mergeCell ref="D459:E459"/>
+    <mergeCell ref="D460:E460"/>
+    <mergeCell ref="D461:E461"/>
+    <mergeCell ref="D462:E462"/>
+    <mergeCell ref="D463:E463"/>
+    <mergeCell ref="D464:E464"/>
+    <mergeCell ref="D447:E447"/>
+    <mergeCell ref="D448:E448"/>
+    <mergeCell ref="D449:E449"/>
+    <mergeCell ref="D450:E450"/>
+    <mergeCell ref="D451:E451"/>
+    <mergeCell ref="D452:E452"/>
+    <mergeCell ref="D453:E453"/>
+    <mergeCell ref="D454:E454"/>
+    <mergeCell ref="D455:E455"/>
+    <mergeCell ref="D438:E438"/>
+    <mergeCell ref="D439:E439"/>
+    <mergeCell ref="D440:E440"/>
+    <mergeCell ref="D441:E441"/>
+    <mergeCell ref="D442:E442"/>
+    <mergeCell ref="D443:E443"/>
+    <mergeCell ref="D444:E444"/>
+    <mergeCell ref="D445:E445"/>
+    <mergeCell ref="D446:E446"/>
+    <mergeCell ref="D429:E429"/>
+    <mergeCell ref="D430:E430"/>
+    <mergeCell ref="D431:E431"/>
+    <mergeCell ref="D432:E432"/>
+    <mergeCell ref="D433:E433"/>
+    <mergeCell ref="D434:E434"/>
+    <mergeCell ref="D435:E435"/>
+    <mergeCell ref="D436:E436"/>
+    <mergeCell ref="D437:E437"/>
+    <mergeCell ref="D420:E420"/>
+    <mergeCell ref="D421:E421"/>
+    <mergeCell ref="D422:E422"/>
+    <mergeCell ref="D423:E423"/>
+    <mergeCell ref="D424:E424"/>
+    <mergeCell ref="D425:E425"/>
+    <mergeCell ref="D426:E426"/>
+    <mergeCell ref="D427:E427"/>
+    <mergeCell ref="D428:E428"/>
+    <mergeCell ref="D411:E411"/>
+    <mergeCell ref="D412:E412"/>
+    <mergeCell ref="D413:E413"/>
+    <mergeCell ref="D414:E414"/>
+    <mergeCell ref="D415:E415"/>
+    <mergeCell ref="D416:E416"/>
+    <mergeCell ref="D417:E417"/>
+    <mergeCell ref="D418:E418"/>
+    <mergeCell ref="D419:E419"/>
+    <mergeCell ref="D402:E402"/>
+    <mergeCell ref="D403:E403"/>
+    <mergeCell ref="D404:E404"/>
+    <mergeCell ref="D405:E405"/>
+    <mergeCell ref="D406:E406"/>
+    <mergeCell ref="D407:E407"/>
+    <mergeCell ref="D408:E408"/>
+    <mergeCell ref="D409:E409"/>
+    <mergeCell ref="D410:E410"/>
+    <mergeCell ref="D393:E393"/>
+    <mergeCell ref="D394:E394"/>
+    <mergeCell ref="D395:E395"/>
+    <mergeCell ref="D396:E396"/>
+    <mergeCell ref="D397:E397"/>
+    <mergeCell ref="D398:E398"/>
+    <mergeCell ref="D399:E399"/>
+    <mergeCell ref="D400:E400"/>
+    <mergeCell ref="D401:E401"/>
+    <mergeCell ref="D384:E384"/>
+    <mergeCell ref="D385:E385"/>
+    <mergeCell ref="D386:E386"/>
+    <mergeCell ref="D387:E387"/>
+    <mergeCell ref="D388:E388"/>
+    <mergeCell ref="D389:E389"/>
+    <mergeCell ref="D390:E390"/>
+    <mergeCell ref="D391:E391"/>
+    <mergeCell ref="D392:E392"/>
+    <mergeCell ref="D375:E375"/>
+    <mergeCell ref="D376:E376"/>
+    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="D378:E378"/>
+    <mergeCell ref="D379:E379"/>
+    <mergeCell ref="D380:E380"/>
+    <mergeCell ref="D381:E381"/>
+    <mergeCell ref="D382:E382"/>
+    <mergeCell ref="D383:E383"/>
+    <mergeCell ref="D366:E366"/>
+    <mergeCell ref="D367:E367"/>
+    <mergeCell ref="D368:E368"/>
+    <mergeCell ref="D369:E369"/>
+    <mergeCell ref="D370:E370"/>
+    <mergeCell ref="D371:E371"/>
+    <mergeCell ref="D372:E372"/>
+    <mergeCell ref="D373:E373"/>
+    <mergeCell ref="D374:E374"/>
+    <mergeCell ref="D357:E357"/>
+    <mergeCell ref="D358:E358"/>
+    <mergeCell ref="D359:E359"/>
+    <mergeCell ref="D360:E360"/>
+    <mergeCell ref="D361:E361"/>
+    <mergeCell ref="D362:E362"/>
+    <mergeCell ref="D363:E363"/>
+    <mergeCell ref="D364:E364"/>
+    <mergeCell ref="D365:E365"/>
+    <mergeCell ref="D348:E348"/>
+    <mergeCell ref="D349:E349"/>
+    <mergeCell ref="D350:E350"/>
+    <mergeCell ref="D351:E351"/>
+    <mergeCell ref="D352:E352"/>
+    <mergeCell ref="D353:E353"/>
+    <mergeCell ref="D354:E354"/>
+    <mergeCell ref="D355:E355"/>
+    <mergeCell ref="D356:E356"/>
+    <mergeCell ref="D339:E339"/>
+    <mergeCell ref="D340:E340"/>
+    <mergeCell ref="D341:E341"/>
+    <mergeCell ref="D342:E342"/>
+    <mergeCell ref="D343:E343"/>
+    <mergeCell ref="D344:E344"/>
+    <mergeCell ref="D345:E345"/>
+    <mergeCell ref="D346:E346"/>
+    <mergeCell ref="D347:E347"/>
+    <mergeCell ref="D330:E330"/>
+    <mergeCell ref="D331:E331"/>
+    <mergeCell ref="D332:E332"/>
+    <mergeCell ref="D333:E333"/>
+    <mergeCell ref="D334:E334"/>
+    <mergeCell ref="D335:E335"/>
+    <mergeCell ref="D336:E336"/>
+    <mergeCell ref="D337:E337"/>
+    <mergeCell ref="D338:E338"/>
+    <mergeCell ref="D321:E321"/>
+    <mergeCell ref="D322:E322"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="D324:E324"/>
+    <mergeCell ref="D325:E325"/>
+    <mergeCell ref="D326:E326"/>
+    <mergeCell ref="D327:E327"/>
+    <mergeCell ref="D328:E328"/>
+    <mergeCell ref="D329:E329"/>
+    <mergeCell ref="D312:E312"/>
+    <mergeCell ref="D313:E313"/>
+    <mergeCell ref="D314:E314"/>
+    <mergeCell ref="D315:E315"/>
+    <mergeCell ref="D316:E316"/>
+    <mergeCell ref="D317:E317"/>
+    <mergeCell ref="D318:E318"/>
+    <mergeCell ref="D319:E319"/>
+    <mergeCell ref="D320:E320"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="D307:E307"/>
+    <mergeCell ref="D308:E308"/>
+    <mergeCell ref="D309:E309"/>
+    <mergeCell ref="D310:E310"/>
+    <mergeCell ref="D311:E311"/>
+    <mergeCell ref="D294:E294"/>
+    <mergeCell ref="D295:E295"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="D297:E297"/>
+    <mergeCell ref="D298:E298"/>
+    <mergeCell ref="D299:E299"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="D302:E302"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15143,9 +15143,9 @@
   </sheetPr>
   <dimension ref="A1:AP1052"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X124" sqref="X124"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15157,7 +15157,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="447" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="442"/>
@@ -35862,7 +35862,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="447" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="442"/>
@@ -41937,7 +41937,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="447" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="442"/>
@@ -47893,7 +47893,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="447" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="442"/>
@@ -55963,7 +55963,7 @@
   </sheetPr>
   <dimension ref="A1:AP870"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -55976,7 +55976,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="447" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="442"/>
